--- a/files/sub/sub1.xlsx
+++ b/files/sub/sub1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhancao/Desktop/"/>
     </mc:Choice>
@@ -23,9 +23,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>nhancv</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -342,8 +351,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/files/sub/sub1.xlsx
+++ b/files/sub/sub1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhancao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/MACData/Projects/Research/nc-util-java-excel/files/sub/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,11 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>nhancv</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43,12 +39,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -63,8 +69,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -345,14 +353,14 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/files/sub/sub1.xlsx
+++ b/files/sub/sub1.xlsx
@@ -39,12 +39,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill>
@@ -69,10 +99,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,7 +392,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2">
+      <c r="A1" s="5">
         <v>1</v>
       </c>
     </row>

--- a/files/sub/sub1.xlsx
+++ b/files/sub/sub1.xlsx
@@ -24,13 +24,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -38,23 +45,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="48"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill>
@@ -99,13 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,23 +385,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/sub/sub1.xlsx
+++ b/files/sub/sub1.xlsx
@@ -52,22 +52,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="48"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill>
@@ -105,9 +95,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +378,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/files/sub/sub1.xlsx
+++ b/files/sub/sub1.xlsx
@@ -52,12 +52,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill>
@@ -92,12 +102,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,12 +395,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>

--- a/files/sub/sub1.xlsx
+++ b/files/sub/sub1.xlsx
@@ -52,12 +52,22 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="48"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="48"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill>
@@ -102,13 +112,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,12 +406,12 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
